--- a/main/ig/StructureDefinition-fr-core-related-person.xlsx
+++ b/main/ig/StructureDefinition-fr-core-related-person.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T15:07:51+00:00</t>
+    <t>2025-10-22T14:21:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -431,7 +431,7 @@
     <t>RelatedPerson.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -482,7 +482,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -506,7 +506,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -549,7 +549,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -723,7 +723,7 @@
     <t>We need to know the relationship with the patient since it influences the interpretation of the information attributed to this person.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/relatedperson-relationshiptype</t>
+    <t>http://hl7.org/fhir/ValueSet/relatedperson-relationshiptype|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">value:coding.system}

--- a/main/ig/StructureDefinition-fr-core-related-person.xlsx
+++ b/main/ig/StructureDefinition-fr-core-related-person.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T14:21:04+00:00</t>
+    <t>2025-11-06T10:11:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-related-person.xlsx
+++ b/main/ig/StructureDefinition-fr-core-related-person.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-06T10:11:54+00:00</t>
+    <t>2025-11-07T16:50:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-related-person.xlsx
+++ b/main/ig/StructureDefinition-fr-core-related-person.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T16:50:39+00:00</t>
+    <t>2025-11-07T17:06:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-related-person.xlsx
+++ b/main/ig/StructureDefinition-fr-core-related-person.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T17:06:48+00:00</t>
+    <t>2025-11-07T17:36:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-related-person.xlsx
+++ b/main/ig/StructureDefinition-fr-core-related-person.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T17:36:51+00:00</t>
+    <t>2025-11-29T07:55:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-related-person.xlsx
+++ b/main/ig/StructureDefinition-fr-core-related-person.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-29T07:55:08+00:00</t>
+    <t>2025-12-05T17:11:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-related-person.xlsx
+++ b/main/ig/StructureDefinition-fr-core-related-person.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2149" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2149" uniqueCount="397">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T17:11:23+00:00</t>
+    <t>2025-12-09T22:51:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -115,7 +115,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/RelatedPerson</t>
+    <t>http://hl7.org/fhir/StructureDefinition/RelatedPerson|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -460,6 +460,9 @@
     <t>fr-canonical</t>
   </si>
   <si>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-related-person|2.2.0-ballot</t>
+  </si>
+  <si>
     <t>RelatedPerson.meta.security</t>
   </si>
   <si>
@@ -688,7 +691,7 @@
     <t>RelatedPerson.patient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -748,7 +751,7 @@
     <t>The nature of the relationship. Rôle de la personne. Ex : personne de confiance, aidant ...</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-patient-contact-role</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-patient-contact-role|2.2.0-ballot</t>
   </si>
   <si>
     <t>RelatedPerson.relationship:Role.id</t>
@@ -967,7 +970,7 @@
     <t>The nature of the relationship. Relation de la personne. Ex : Mère, époux, enfant ...</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-relation-type</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-relation-type|2.2.0-ballot</t>
   </si>
   <si>
     <t>RelatedPerson.relationship:RelationType.id</t>
@@ -1009,7 +1012,7 @@
     <t>RelatedPerson.name</t>
   </si>
   <si>
-    <t xml:space="preserve">HumanName {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-human-name}
+    <t xml:space="preserve">HumanName {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-human-name|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -1031,7 +1034,7 @@
     <t>RelatedPerson.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point}
+    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -1099,7 +1102,7 @@
     <t>RelatedPerson.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address}
+    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -1569,7 +1572,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="64.85546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="74.36328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1584,7 +1587,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="51.54296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="61.05078125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -2761,7 +2764,7 @@
         <v>77</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>3</v>
+        <v>143</v>
       </c>
       <c r="T11" t="s" s="2">
         <v>77</v>
@@ -2826,10 +2829,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2852,16 +2855,16 @@
         <v>87</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2887,13 +2890,13 @@
         <v>77</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>77</v>
@@ -2911,7 +2914,7 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -2937,10 +2940,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2963,16 +2966,16 @@
         <v>87</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2998,13 +3001,13 @@
         <v>77</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>77</v>
@@ -3022,7 +3025,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -3048,10 +3051,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3077,13 +3080,13 @@
         <v>128</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3133,7 +3136,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -3159,10 +3162,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3185,16 +3188,16 @@
         <v>77</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3220,13 +3223,13 @@
         <v>77</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>77</v>
@@ -3244,7 +3247,7 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -3270,14 +3273,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3296,16 +3299,16 @@
         <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3355,7 +3358,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -3370,7 +3373,7 @@
         <v>98</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>77</v>
@@ -3381,14 +3384,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3407,16 +3410,16 @@
         <v>77</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3466,7 +3469,7 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3481,7 +3484,7 @@
         <v>77</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>77</v>
@@ -3492,10 +3495,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3524,7 +3527,7 @@
         <v>108</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N18" t="s" s="2">
         <v>110</v>
@@ -3577,7 +3580,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -3592,7 +3595,7 @@
         <v>115</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>77</v>
@@ -3603,10 +3606,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3632,16 +3635,16 @@
         <v>107</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N19" t="s" s="2">
         <v>110</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>77</v>
@@ -3690,7 +3693,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3705,7 +3708,7 @@
         <v>115</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>77</v>
@@ -3716,10 +3719,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3742,17 +3745,17 @@
         <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3801,7 +3804,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -3816,21 +3819,21 @@
         <v>98</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3853,70 +3856,70 @@
         <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="P21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q21" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="R21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF21" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="P21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q21" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="R21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -3931,10 +3934,10 @@
         <v>98</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>77</v>
@@ -3942,10 +3945,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3968,17 +3971,17 @@
         <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>77</v>
@@ -4027,7 +4030,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>86</v>
@@ -4042,21 +4045,21 @@
         <v>98</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4079,17 +4082,17 @@
         <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -4114,19 +4117,19 @@
         <v>77</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AC23" s="2"/>
       <c r="AD23" t="s" s="2">
@@ -4136,7 +4139,7 @@
         <v>113</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4151,24 +4154,24 @@
         <v>98</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>77</v>
@@ -4190,17 +4193,17 @@
         <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>77</v>
@@ -4225,11 +4228,11 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>77</v>
@@ -4247,7 +4250,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4262,21 +4265,21 @@
         <v>98</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4382,10 +4385,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4493,10 +4496,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4519,19 +4522,19 @@
         <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>77</v>
@@ -4580,7 +4583,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4595,21 +4598,21 @@
         <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4715,10 +4718,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4826,10 +4829,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4855,16 +4858,16 @@
         <v>128</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4874,7 +4877,7 @@
         <v>77</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>77</v>
@@ -4913,7 +4916,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -4928,21 +4931,21 @@
         <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4968,13 +4971,13 @@
         <v>100</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5024,7 +5027,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5039,21 +5042,21 @@
         <v>98</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5076,17 +5079,17 @@
         <v>87</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>77</v>
@@ -5135,7 +5138,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5150,21 +5153,21 @@
         <v>98</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5190,14 +5193,14 @@
         <v>100</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5246,7 +5249,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5261,21 +5264,21 @@
         <v>98</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5298,19 +5301,19 @@
         <v>87</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>77</v>
@@ -5359,7 +5362,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5374,21 +5377,21 @@
         <v>98</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5414,16 +5417,16 @@
         <v>100</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5472,7 +5475,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5487,24 +5490,24 @@
         <v>98</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D36" t="s" s="2">
         <v>77</v>
@@ -5526,17 +5529,17 @@
         <v>87</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>77</v>
@@ -5561,11 +5564,11 @@
         <v>77</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Y36" s="2"/>
       <c r="Z36" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>77</v>
@@ -5583,7 +5586,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5598,21 +5601,21 @@
         <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5718,10 +5721,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5829,10 +5832,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5855,19 +5858,19 @@
         <v>87</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>77</v>
@@ -5916,7 +5919,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -5931,21 +5934,21 @@
         <v>98</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6051,10 +6054,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6162,10 +6165,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6191,16 +6194,16 @@
         <v>128</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>77</v>
@@ -6210,7 +6213,7 @@
         <v>77</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="T42" t="s" s="2">
         <v>77</v>
@@ -6249,7 +6252,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6264,21 +6267,21 @@
         <v>98</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6304,13 +6307,13 @@
         <v>100</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6360,7 +6363,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6375,21 +6378,21 @@
         <v>98</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6412,17 +6415,17 @@
         <v>87</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>77</v>
@@ -6471,7 +6474,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6486,21 +6489,21 @@
         <v>98</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6526,14 +6529,14 @@
         <v>100</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -6582,7 +6585,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -6597,21 +6600,21 @@
         <v>98</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6634,19 +6637,19 @@
         <v>87</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>77</v>
@@ -6695,7 +6698,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -6710,21 +6713,21 @@
         <v>98</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6750,16 +6753,16 @@
         <v>100</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>77</v>
@@ -6808,7 +6811,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -6823,21 +6826,21 @@
         <v>98</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6860,17 +6863,17 @@
         <v>87</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -6919,7 +6922,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -6934,21 +6937,21 @@
         <v>98</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6971,19 +6974,19 @@
         <v>87</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>77</v>
@@ -7032,7 +7035,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7047,21 +7050,21 @@
         <v>98</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7084,17 +7087,17 @@
         <v>87</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -7119,13 +7122,13 @@
         <v>77</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>77</v>
@@ -7143,7 +7146,7 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7158,21 +7161,21 @@
         <v>98</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7195,13 +7198,13 @@
         <v>87</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7252,7 +7255,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7267,7 +7270,7 @@
         <v>98</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -7278,10 +7281,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7304,17 +7307,17 @@
         <v>87</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>77</v>
@@ -7363,7 +7366,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7378,21 +7381,21 @@
         <v>98</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7415,17 +7418,17 @@
         <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -7474,7 +7477,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -7489,21 +7492,21 @@
         <v>98</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7526,13 +7529,13 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7583,7 +7586,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -7598,10 +7601,10 @@
         <v>98</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>77</v>
@@ -7609,10 +7612,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7635,19 +7638,19 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -7696,7 +7699,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -7711,7 +7714,7 @@
         <v>98</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
@@ -7722,10 +7725,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7831,10 +7834,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7942,14 +7945,14 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -7971,16 +7974,16 @@
         <v>107</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N58" t="s" s="2">
         <v>110</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -8029,7 +8032,7 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8044,7 +8047,7 @@
         <v>115</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8055,10 +8058,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8081,19 +8084,19 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>77</v>
@@ -8118,13 +8121,13 @@
         <v>77</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>77</v>
@@ -8142,7 +8145,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>86</v>
@@ -8157,7 +8160,7 @@
         <v>98</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -8168,10 +8171,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8194,19 +8197,19 @@
         <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -8255,7 +8258,7 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8270,7 +8273,7 @@
         <v>98</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>

--- a/main/ig/StructureDefinition-fr-core-related-person.xlsx
+++ b/main/ig/StructureDefinition-fr-core-related-person.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-09T22:51:13+00:00</t>
+    <t>2025-12-17T08:23:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-related-person.xlsx
+++ b/main/ig/StructureDefinition-fr-core-related-person.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T17:17:04+00:00</t>
+    <t>2025-12-29T08:10:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-related-person.xlsx
+++ b/main/ig/StructureDefinition-fr-core-related-person.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T08:10:54+00:00</t>
+    <t>2026-01-09T10:08:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-related-person.xlsx
+++ b/main/ig/StructureDefinition-fr-core-related-person.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-09T10:08:27+00:00</t>
+    <t>2026-01-12T10:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-related-person.xlsx
+++ b/main/ig/StructureDefinition-fr-core-related-person.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-12T10:02:26+00:00</t>
+    <t>2026-01-21T08:47:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-related-person.xlsx
+++ b/main/ig/StructureDefinition-fr-core-related-person.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-21T08:47:55+00:00</t>
+    <t>2026-01-28T09:35:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-related-person.xlsx
+++ b/main/ig/StructureDefinition-fr-core-related-person.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-28T09:35:28+00:00</t>
+    <t>2026-01-28T10:29:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-related-person.xlsx
+++ b/main/ig/StructureDefinition-fr-core-related-person.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-28T10:29:57+00:00</t>
+    <t>2026-01-29T08:32:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-related-person.xlsx
+++ b/main/ig/StructureDefinition-fr-core-related-person.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0-ballot</t>
+    <t>2.2.0-ballot-2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-29T08:32:45+00:00</t>
+    <t>2026-01-29T08:34:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>Interop'Santé (http://interopsante.org/)</t>
+    <t>Interop'Santé (http://interopsante.org)</t>
   </si>
   <si>
     <t>InteropSanté (fhir@interopsante.org(Work))</t>
@@ -460,7 +460,7 @@
     <t>fr-canonical</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-related-person|2.2.0-ballot</t>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-related-person|2.2.0-ballot-2</t>
   </si>
   <si>
     <t>RelatedPerson.meta.security</t>
@@ -691,7 +691,7 @@
     <t>RelatedPerson.patient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient|2.2.0-ballot)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient|2.2.0-ballot-2)
 </t>
   </si>
   <si>
@@ -751,7 +751,7 @@
     <t>The nature of the relationship. Rôle de la personne. Ex : personne de confiance, aidant ...</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-patient-contact-role|2.2.0-ballot</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-patient-contact-role|2.2.0-ballot-2</t>
   </si>
   <si>
     <t>RelatedPerson.relationship:Role.id</t>
@@ -970,7 +970,7 @@
     <t>The nature of the relationship. Relation de la personne. Ex : Mère, époux, enfant ...</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-relation-type|2.2.0-ballot</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-relation-type|2.2.0-ballot-2</t>
   </si>
   <si>
     <t>RelatedPerson.relationship:RelationType.id</t>
@@ -1012,7 +1012,7 @@
     <t>RelatedPerson.name</t>
   </si>
   <si>
-    <t xml:space="preserve">HumanName {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-human-name|2.2.0-ballot}
+    <t xml:space="preserve">HumanName {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-human-name|2.2.0-ballot-2}
 </t>
   </si>
   <si>
@@ -1034,7 +1034,7 @@
     <t>RelatedPerson.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point|2.2.0-ballot}
+    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point|2.2.0-ballot-2}
 </t>
   </si>
   <si>
@@ -1102,7 +1102,7 @@
     <t>RelatedPerson.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address|2.2.0-ballot}
+    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address|2.2.0-ballot-2}
 </t>
   </si>
   <si>
@@ -1572,7 +1572,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="74.36328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="75.93359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1587,7 +1587,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="61.05078125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="62.6171875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>

--- a/main/ig/StructureDefinition-fr-core-related-person.xlsx
+++ b/main/ig/StructureDefinition-fr-core-related-person.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-29T08:34:51+00:00</t>
+    <t>2026-01-29T08:41:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-related-person.xlsx
+++ b/main/ig/StructureDefinition-fr-core-related-person.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-29T08:41:18+00:00</t>
+    <t>2026-01-30T10:25:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
